--- a/teaching/traditional_assets/database/data/tunisia/tunisia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.131</v>
+        <v>0.114</v>
       </c>
       <c r="E2">
-        <v>0.0272</v>
+        <v>-0.207</v>
       </c>
       <c r="G2">
-        <v>0.5888384166125892</v>
+        <v>0.611406844106464</v>
       </c>
       <c r="H2">
-        <v>0.5888384166125892</v>
+        <v>0.611406844106464</v>
       </c>
       <c r="I2">
-        <v>0.5602206359506814</v>
+        <v>0.5627376425855514</v>
       </c>
       <c r="J2">
-        <v>0.4262454167240359</v>
+        <v>0.2848242278700554</v>
       </c>
       <c r="K2">
-        <v>10.339</v>
+        <v>4.887</v>
       </c>
       <c r="L2">
-        <v>0.06709279688513953</v>
+        <v>0.03716349809885931</v>
       </c>
       <c r="M2">
-        <v>11.04</v>
+        <v>3.63</v>
       </c>
       <c r="N2">
-        <v>0.06939032055311126</v>
+        <v>0.04514925373134328</v>
       </c>
       <c r="O2">
-        <v>1.067801528194216</v>
+        <v>0.7427869858809085</v>
       </c>
       <c r="P2">
-        <v>10.92</v>
+        <v>3.63</v>
       </c>
       <c r="Q2">
-        <v>0.06863607793840353</v>
+        <v>0.04514925373134328</v>
       </c>
       <c r="R2">
-        <v>1.056194989844279</v>
+        <v>0.7427869858809085</v>
       </c>
       <c r="S2">
-        <v>0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.01086956521739131</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>17.09</v>
+        <v>28.12</v>
       </c>
       <c r="V2">
-        <v>0.107416719044626</v>
+        <v>0.3497512437810945</v>
       </c>
       <c r="W2">
-        <v>0.09135802469135804</v>
+        <v>0.01823529411764706</v>
       </c>
       <c r="X2">
-        <v>0.08391208819803082</v>
+        <v>0.08614028408598519</v>
       </c>
       <c r="Y2">
-        <v>0.007445936493327213</v>
+        <v>-0.06790498996833813</v>
       </c>
       <c r="Z2">
-        <v>0.2839359679250011</v>
+        <v>0.4322529748208533</v>
       </c>
       <c r="AA2">
-        <v>0.06455694335894298</v>
+        <v>0.03887221374797028</v>
       </c>
       <c r="AB2">
-        <v>0.0671113426486686</v>
+        <v>0.05923218467750604</v>
       </c>
       <c r="AC2">
-        <v>-0.007584155982687121</v>
+        <v>-0.02035997092953576</v>
       </c>
       <c r="AD2">
-        <v>425.2</v>
+        <v>257.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>425.2</v>
+        <v>257.2</v>
       </c>
       <c r="AG2">
-        <v>408.1100000000001</v>
+        <v>229.08</v>
       </c>
       <c r="AH2">
-        <v>0.7277083689885333</v>
+        <v>0.7618483412322274</v>
       </c>
       <c r="AI2">
-        <v>0.8576038725292456</v>
+        <v>0.8065224208215742</v>
       </c>
       <c r="AJ2">
-        <v>0.7195042400521854</v>
+        <v>0.7402093834819696</v>
       </c>
       <c r="AK2">
-        <v>0.8525203150132649</v>
+        <v>0.7878120916156545</v>
       </c>
       <c r="AL2">
-        <v>74.42</v>
+        <v>58.8</v>
       </c>
       <c r="AM2">
-        <v>73.8</v>
+        <v>58.58499999999999</v>
       </c>
       <c r="AN2">
-        <v>4.574994620185066</v>
+        <v>3.239294710327456</v>
       </c>
       <c r="AO2">
-        <v>1.160037624294544</v>
+        <v>1.258503401360544</v>
       </c>
       <c r="AP2">
-        <v>4.391112545728427</v>
+        <v>2.885138539042821</v>
       </c>
       <c r="AQ2">
-        <v>1.169783197831978</v>
+        <v>1.263121959545959</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tunisie Leasing &amp; Factoring (BVMT:TLS)</t>
+          <t>Tunisie Leasing &amp; Factoring Société anonyme (BVMT:TLS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,52 +725,52 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.226</v>
+        <v>0.212</v>
       </c>
       <c r="E3">
-        <v>-0.0257</v>
+        <v>-0.0524</v>
       </c>
       <c r="G3">
-        <v>0.5634408602150538</v>
+        <v>0.6057416267942584</v>
       </c>
       <c r="H3">
-        <v>0.5634408602150538</v>
+        <v>0.6057416267942584</v>
       </c>
       <c r="I3">
-        <v>0.5086021505376344</v>
+        <v>0.5569377990430622</v>
       </c>
       <c r="J3">
-        <v>0.2543010752688172</v>
+        <v>0.2887282800302191</v>
       </c>
       <c r="K3">
-        <v>4.28</v>
+        <v>4.02</v>
       </c>
       <c r="L3">
-        <v>0.04602150537634409</v>
+        <v>0.0384688995215311</v>
       </c>
       <c r="M3">
-        <v>6.9</v>
+        <v>2.27</v>
       </c>
       <c r="N3">
-        <v>0.2110091743119266</v>
+        <v>0.05509708737864077</v>
       </c>
       <c r="O3">
-        <v>1.61214953271028</v>
+        <v>0.5646766169154229</v>
       </c>
       <c r="P3">
-        <v>6.78</v>
+        <v>2.27</v>
       </c>
       <c r="Q3">
-        <v>0.2073394495412844</v>
+        <v>0.05509708737864077</v>
       </c>
       <c r="R3">
-        <v>1.58411214953271</v>
+        <v>0.5646766169154229</v>
       </c>
       <c r="S3">
-        <v>0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0173913043478261</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03509489424575519</v>
+        <v>0.02580261134732567</v>
       </c>
       <c r="AB3">
-        <v>0.03509489424575519</v>
+        <v>0.02580261134732567</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,22 +803,22 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>41.2</v>
+        <v>45.8</v>
       </c>
       <c r="AM3">
-        <v>41.2</v>
+        <v>45.8</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.148058252427184</v>
+        <v>1.270742358078603</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.148058252427184</v>
+        <v>1.270742358078603</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wifack International Bank (BVMT:WIFAK)</t>
+          <t>Arab Tunisian Lease S.A. (BVMT:ATL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,25 +838,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.183</v>
+        <v>0.114</v>
+      </c>
+      <c r="E4">
+        <v>-0.291</v>
       </c>
       <c r="G4">
-        <v>0.372463768115942</v>
+        <v>0.7339055793991417</v>
       </c>
       <c r="H4">
-        <v>0.372463768115942</v>
+        <v>0.7339055793991417</v>
       </c>
       <c r="I4">
-        <v>0.2920289855072464</v>
+        <v>0.6781115879828327</v>
       </c>
       <c r="J4">
-        <v>0.2920289855072464</v>
+        <v>0.3390557939914163</v>
       </c>
       <c r="K4">
-        <v>-0.591</v>
+        <v>0.402</v>
       </c>
       <c r="L4">
-        <v>-0.04282608695652174</v>
+        <v>0.01725321888412017</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -865,7 +868,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -874,58 +877,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.2510416666666667</v>
+      </c>
+      <c r="W4">
+        <v>0.01435714285714286</v>
       </c>
       <c r="X4">
-        <v>0.03509489424575519</v>
+        <v>0.1287505422913847</v>
+      </c>
+      <c r="Y4">
+        <v>-0.1143933994342418</v>
+      </c>
+      <c r="Z4">
+        <v>0.1146484278895832</v>
+      </c>
+      <c r="AA4">
+        <v>0.03887221374797028</v>
       </c>
       <c r="AB4">
-        <v>0.03509489424575519</v>
+        <v>0.05923218467750604</v>
+      </c>
+      <c r="AC4">
+        <v>-0.02035997092953576</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>159.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>159.7</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>154.88</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.8926774734488542</v>
+      </c>
+      <c r="AI4">
+        <v>0.8244708311822405</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.8897058823529412</v>
+      </c>
+      <c r="AK4">
+        <v>0.81999152901313</v>
       </c>
       <c r="AL4">
-        <v>5.02</v>
+        <v>13</v>
       </c>
       <c r="AM4">
-        <v>5.02</v>
+        <v>12.785</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>9.919254658385091</v>
       </c>
       <c r="AO4">
-        <v>0.802788844621514</v>
+        <v>1.215384615384616</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>9.619875776397514</v>
       </c>
       <c r="AQ4">
-        <v>0.802788844621514</v>
+        <v>1.235823230348064</v>
       </c>
     </row>
     <row r="5">
@@ -936,7 +960,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Attijari Leasing S.A. (BVMT:TJL)</t>
+          <t>Best Lease SA (BVMT:BL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -945,46 +969,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0984</v>
+        <v>0.0298</v>
       </c>
       <c r="E5">
-        <v>-0.08310000000000001</v>
+        <v>-0.207</v>
       </c>
       <c r="G5">
-        <v>0.7676767676767676</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.7676767676767676</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.803030303030303</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6502970885323827</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.24</v>
+        <v>0.465</v>
       </c>
       <c r="L5">
-        <v>0.06262626262626263</v>
+        <v>0.1256756756756757</v>
       </c>
       <c r="M5">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="N5">
-        <v>0.09349593495934957</v>
+        <v>0.068</v>
       </c>
       <c r="O5">
-        <v>0.9274193548387096</v>
+        <v>2.924731182795699</v>
       </c>
       <c r="P5">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="Q5">
-        <v>0.09349593495934957</v>
+        <v>0.068</v>
       </c>
       <c r="R5">
-        <v>0.9274193548387096</v>
+        <v>2.924731182795699</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -993,328 +1017,60 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>6.01</v>
+        <v>23.3</v>
       </c>
       <c r="V5">
-        <v>0.4886178861788618</v>
+        <v>1.165</v>
       </c>
       <c r="W5">
-        <v>0.06595744680851064</v>
+        <v>0.01823529411764706</v>
       </c>
       <c r="X5">
-        <v>0.193462316182121</v>
+        <v>0.08614028408598519</v>
       </c>
       <c r="Y5">
-        <v>-0.1275048693736103</v>
+        <v>-0.06790498996833813</v>
       </c>
       <c r="Z5">
-        <v>0.09927300075206819</v>
+        <v>0.03663729082087335</v>
       </c>
       <c r="AA5">
-        <v>0.06455694335894298</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0721410993416301</v>
+        <v>0.06358585940312199</v>
       </c>
       <c r="AC5">
-        <v>-0.007584155982687121</v>
+        <v>-0.06358585940312199</v>
       </c>
       <c r="AD5">
-        <v>163.4</v>
+        <v>97.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>163.4</v>
+        <v>97.5</v>
       </c>
       <c r="AG5">
-        <v>157.39</v>
+        <v>74.2</v>
       </c>
       <c r="AH5">
-        <v>0.9299943084803642</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="AI5">
-        <v>0.9052631578947369</v>
+        <v>0.7787539936102236</v>
       </c>
       <c r="AJ5">
-        <v>0.9275148800754316</v>
+        <v>0.7876857749469215</v>
       </c>
       <c r="AK5">
-        <v>0.902000114619749</v>
+        <v>0.7281648675171737</v>
       </c>
       <c r="AL5">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>14.5</v>
-      </c>
-      <c r="AN5">
-        <v>10.14906832298137</v>
-      </c>
-      <c r="AO5">
-        <v>1.096551724137931</v>
-      </c>
-      <c r="AP5">
-        <v>9.775776397515529</v>
-      </c>
-      <c r="AQ5">
-        <v>1.096551724137931</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arab Tunisian Lease S.A. (BVMT:ATL)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.129</v>
-      </c>
-      <c r="E6">
-        <v>0.0801</v>
-      </c>
-      <c r="G6">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="H6">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="I6">
-        <v>0.8377192982456141</v>
-      </c>
-      <c r="J6">
-        <v>0.6115159179413063</v>
-      </c>
-      <c r="K6">
-        <v>3.19</v>
-      </c>
-      <c r="L6">
-        <v>0.1399122807017544</v>
-      </c>
-      <c r="M6">
-        <v>1.74</v>
-      </c>
-      <c r="N6">
-        <v>0.08743718592964825</v>
-      </c>
-      <c r="O6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="P6">
-        <v>1.74</v>
-      </c>
-      <c r="Q6">
-        <v>0.08743718592964825</v>
-      </c>
-      <c r="R6">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>4.67</v>
-      </c>
-      <c r="V6">
-        <v>0.2346733668341709</v>
-      </c>
-      <c r="W6">
-        <v>0.1088737201365188</v>
-      </c>
-      <c r="X6">
-        <v>0.1428646734471883</v>
-      </c>
-      <c r="Y6">
-        <v>-0.03399095331066958</v>
-      </c>
-      <c r="Z6">
-        <v>0.09655698132384703</v>
-      </c>
-      <c r="AA6">
-        <v>0.05904613106789389</v>
-      </c>
-      <c r="AB6">
-        <v>0.07096222977401923</v>
-      </c>
-      <c r="AC6">
-        <v>-0.01191609870612533</v>
-      </c>
-      <c r="AD6">
-        <v>179.9</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>179.9</v>
-      </c>
-      <c r="AG6">
-        <v>175.23</v>
-      </c>
-      <c r="AH6">
-        <v>0.9004004004004004</v>
-      </c>
-      <c r="AI6">
-        <v>0.8653198653198654</v>
-      </c>
-      <c r="AJ6">
-        <v>0.898016706810844</v>
-      </c>
-      <c r="AK6">
-        <v>0.8622250651970673</v>
-      </c>
-      <c r="AL6">
-        <v>13.7</v>
-      </c>
-      <c r="AM6">
-        <v>13.08</v>
-      </c>
-      <c r="AN6">
-        <v>9.321243523316062</v>
-      </c>
-      <c r="AO6">
-        <v>1.394160583941606</v>
-      </c>
-      <c r="AP6">
-        <v>9.079274611398965</v>
-      </c>
-      <c r="AQ6">
-        <v>1.460244648318043</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Best Lease SA (BVMT:BL)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.131</v>
-      </c>
-      <c r="E7">
-        <v>0.114</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>2.22</v>
-      </c>
-      <c r="L7">
-        <v>0.4723404255319149</v>
-      </c>
-      <c r="M7">
-        <v>1.25</v>
-      </c>
-      <c r="N7">
-        <v>0.0625</v>
-      </c>
-      <c r="O7">
-        <v>0.563063063063063</v>
-      </c>
-      <c r="P7">
-        <v>1.25</v>
-      </c>
-      <c r="Q7">
-        <v>0.0625</v>
-      </c>
-      <c r="R7">
-        <v>0.563063063063063</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>6.41</v>
-      </c>
-      <c r="V7">
-        <v>0.3205</v>
-      </c>
-      <c r="W7">
-        <v>0.09135802469135804</v>
-      </c>
-      <c r="X7">
-        <v>0.08391208819803082</v>
-      </c>
-      <c r="Y7">
-        <v>0.007445936493327213</v>
-      </c>
-      <c r="Z7">
-        <v>0.04386456116773062</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0.0671113426486686</v>
-      </c>
-      <c r="AC7">
-        <v>-0.0671113426486686</v>
-      </c>
-      <c r="AD7">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>81.90000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>75.49000000000001</v>
-      </c>
-      <c r="AH7">
-        <v>0.803729146221786</v>
-      </c>
-      <c r="AI7">
-        <v>0.7625698324022346</v>
-      </c>
-      <c r="AJ7">
-        <v>0.7905539847104409</v>
-      </c>
-      <c r="AK7">
-        <v>0.7474997524507377</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
         <v>0</v>
       </c>
     </row>
